--- a/s3tbx-fu-operator/src/ancillary/SNAP_MODIS500.xlsx
+++ b/s3tbx-fu-operator/src/ancillary/SNAP_MODIS500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="20115" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="My calculations " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -142,13 +142,16 @@
     <t>prima</t>
   </si>
   <si>
+    <t>Pixel</t>
+  </si>
+  <si>
     <t>R647</t>
   </si>
   <si>
+    <t>R553</t>
+  </si>
+  <si>
     <t>R466</t>
-  </si>
-  <si>
-    <t>R553</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -623,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1410,7 +1413,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1419,7 +1421,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1446,9 @@
         <v>1</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
@@ -1472,8 +1476,12 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1">
+        <v>1385</v>
+      </c>
+      <c r="I2" s="1">
+        <v>989</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <v>1385</v>
@@ -1494,6 +1502,12 @@
       </c>
       <c r="F3" s="1">
         <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1771</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2077</v>
       </c>
       <c r="K3">
         <v>1771</v>
